--- a/banhang24/Template/ExportExcel/BaoCao/Teamplate_PhieuDieuChinhGiaVon.xlsx
+++ b/banhang24/Template/ExportExcel/BaoCao/Teamplate_PhieuDieuChinhGiaVon.xlsx
@@ -12,15 +12,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$4:$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Tổng cộng:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Ngày lập </t>
   </si>
@@ -52,10 +49,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -85,7 +79,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,12 +89,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -132,7 +120,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -150,9 +138,6 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -163,38 +148,29 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -501,334 +477,315 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="32" style="19" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="32" style="15" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" style="6" customWidth="1"/>
     <col min="6" max="7" width="18" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" style="16" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="A1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
+      <c r="A2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="8"/>
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>7</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="8"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="21"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="21"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="21"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="21"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="21"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="21"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="21"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="21"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="21"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="21"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="21"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="21"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="21"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="21"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="21"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="21"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="21"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="21"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="21"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="21"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="21"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="21"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="21"/>
-    </row>
-    <row r="29" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7">
-        <f>SUM(F$5:F28)</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="7">
-        <f>SUM(G$5:G28)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="22"/>
+      <c r="H28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <pageMargins left="0.76" right="0.23" top="0.78" bottom="0.87" header="0.3" footer="0.7"/>
   <pageSetup scale="95" orientation="landscape" r:id="rId1"/>
